--- a/branches/releasecandidate/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/releasecandidate/StructureDefinition-be-medicationdispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4887" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="644">
   <si>
     <t>Path</t>
   </si>
@@ -1148,10 +1148,6 @@
     <t>Indicates who or what performed the event.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:actor}
-</t>
-  </si>
-  <si>
     <t>Event.performer</t>
   </si>
   <si>
@@ -1220,7 +1216,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
 </t>
   </si>
   <si>
@@ -1234,25 +1230,6 @@
   </si>
   <si>
     <t>.role</t>
-  </si>
-  <si>
-    <t>dispensingOrganization</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-performer-organization-nidhi:When an organization is referred to by use of an identifier, the naming system SHOULD be NIHDI number {actor.identifier.exists() implies actor.identifier.system='https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi-organization'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-performer-practitioner-nidhi:When a practitioner is referred to by use of an identifier, the system naming SHOULD be NIHDI number {actor.identifier.exists() implies actor.identifier.system='https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi-practitioner'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
-</t>
   </si>
   <si>
     <t>MedicationDispense.location</t>
@@ -2181,7 +2158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN136"/>
+  <dimension ref="A1:AN124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9766,7 +9743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>361</v>
       </c>
@@ -9836,14 +9813,16 @@
         <v>41</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AB67" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>361</v>
@@ -9861,10 +9840,10 @@
         <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
@@ -9878,7 +9857,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9990,7 +9969,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10104,11 +10083,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10130,10 +10109,10 @@
         <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>99</v>
@@ -10188,7 +10167,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -10220,7 +10199,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10246,14 +10225,14 @@
         <v>140</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -10281,11 +10260,11 @@
         <v>263</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
       </c>
@@ -10302,7 +10281,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10320,7 +10299,7 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
@@ -10334,7 +10313,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10446,7 +10425,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10560,7 +10539,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10676,7 +10655,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10721,7 +10700,7 @@
         <v>41</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>41</v>
@@ -10792,7 +10771,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10815,13 +10794,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10872,7 +10851,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>50</v>
@@ -10887,28 +10866,26 @@
         <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>41</v>
       </c>
@@ -10920,7 +10897,7 @@
         <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -10929,13 +10906,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10986,25 +10963,25 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>394</v>
+        <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>41</v>
@@ -11016,9 +10993,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11029,10 +11006,10 @@
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>41</v>
@@ -11041,15 +11018,17 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>52</v>
+        <v>398</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>120</v>
+        <v>399</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
@@ -11098,50 +11077,50 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>122</v>
+        <v>397</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>123</v>
+        <v>403</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>41</v>
+        <v>404</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>41</v>
@@ -11153,17 +11132,15 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -11212,19 +11189,19 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>41</v>
@@ -11244,11 +11221,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>371</v>
+        <v>95</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11261,26 +11238,24 @@
         <v>41</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>372</v>
+        <v>97</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>373</v>
+        <v>125</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>41</v>
       </c>
@@ -11316,19 +11291,19 @@
         <v>41</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>374</v>
+        <v>128</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11346,7 +11321,7 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
@@ -11360,7 +11335,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11380,21 +11355,21 @@
         <v>41</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>41</v>
       </c>
@@ -11418,13 +11393,13 @@
         <v>41</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -11442,7 +11417,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>375</v>
+        <v>314</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11451,7 +11426,7 @@
         <v>50</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>62</v>
@@ -11460,7 +11435,7 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>381</v>
+        <v>93</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>41</v>
@@ -11474,7 +11449,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11482,7 +11457,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>50</v>
@@ -11494,18 +11469,20 @@
         <v>41</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>395</v>
+        <v>64</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>41</v>
@@ -11530,13 +11507,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -11554,10 +11531,10 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>50</v>
@@ -11569,10 +11546,10 @@
         <v>62</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>392</v>
+        <v>93</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -11586,11 +11563,9 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>41</v>
       </c>
@@ -11608,18 +11583,20 @@
         <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>362</v>
+        <v>108</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11668,25 +11645,25 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>396</v>
+        <v>62</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11698,9 +11675,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11714,24 +11691,26 @@
         <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11780,7 +11759,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>122</v>
+        <v>354</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11792,13 +11771,13 @@
         <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
@@ -11812,18 +11791,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>41</v>
@@ -11835,17 +11814,15 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>97</v>
+        <v>413</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>41</v>
@@ -11870,13 +11847,13 @@
         <v>41</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>41</v>
+        <v>415</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>41</v>
@@ -11894,75 +11871,71 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>128</v>
+        <v>412</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>123</v>
+        <v>416</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>96</v>
+        <v>420</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>41</v>
       </c>
@@ -12010,39 +11983,39 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>93</v>
+        <v>423</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>41</v>
+        <v>424</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>41</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12065,18 +12038,16 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>41</v>
       </c>
@@ -12100,13 +12071,13 @@
         <v>41</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>41</v>
@@ -12124,7 +12095,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -12142,7 +12113,7 @@
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
@@ -12151,12 +12122,12 @@
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12164,7 +12135,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>50</v>
@@ -12176,16 +12147,16 @@
         <v>41</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12236,10 +12207,10 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>50</v>
@@ -12251,24 +12222,24 @@
         <v>62</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>41</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12276,13 +12247,13 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>41</v>
@@ -12291,13 +12262,13 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12348,7 +12319,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12363,24 +12334,24 @@
         <v>62</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>41</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12391,10 +12362,10 @@
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -12403,17 +12374,15 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>41</v>
@@ -12462,13 +12431,13 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>41</v>
@@ -12477,24 +12446,24 @@
         <v>62</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>411</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12505,7 +12474,7 @@
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>41</v>
@@ -12517,13 +12486,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>52</v>
+        <v>450</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>121</v>
+        <v>452</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12574,43 +12543,43 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>122</v>
+        <v>449</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>123</v>
+        <v>453</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12620,7 +12589,7 @@
         <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>41</v>
@@ -12629,17 +12598,15 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>96</v>
+        <v>456</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>97</v>
+        <v>457</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>41</v>
@@ -12676,19 +12643,19 @@
         <v>41</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>128</v>
+        <v>455</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12700,13 +12667,13 @@
         <v>41</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>41</v>
+        <v>459</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>123</v>
+        <v>460</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>41</v>
@@ -12715,12 +12682,12 @@
         <v>41</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>41</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12731,28 +12698,28 @@
         <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>52</v>
+        <v>463</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>311</v>
+        <v>464</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>312</v>
+        <v>465</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>313</v>
+        <v>466</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12802,16 +12769,16 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>314</v>
+        <v>462</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>62</v>
@@ -12820,7 +12787,7 @@
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>93</v>
+        <v>467</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>41</v>
@@ -12834,7 +12801,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12854,20 +12821,18 @@
         <v>41</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -12892,13 +12857,13 @@
         <v>41</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>41</v>
@@ -12916,7 +12881,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12928,13 +12893,13 @@
         <v>41</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>41</v>
@@ -12946,41 +12911,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13018,37 +12983,37 @@
         <v>41</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>327</v>
+        <v>128</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>328</v>
+        <v>123</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>41</v>
@@ -13060,43 +13025,45 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>41</v>
       </c>
@@ -13144,19 +13111,19 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>41</v>
@@ -13176,7 +13143,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13196,19 +13163,21 @@
         <v>41</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>140</v>
+        <v>472</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>41</v>
       </c>
@@ -13232,13 +13201,13 @@
         <v>41</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>421</v>
+        <v>41</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>41</v>
@@ -13256,7 +13225,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13274,21 +13243,21 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>423</v>
+        <v>41</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>424</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13308,19 +13277,21 @@
         <v>41</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>426</v>
+        <v>52</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>41</v>
       </c>
@@ -13368,7 +13339,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13386,21 +13357,21 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>431</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13411,7 +13382,7 @@
         <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>41</v>
@@ -13420,19 +13391,23 @@
         <v>41</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>426</v>
+        <v>140</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>41</v>
       </c>
@@ -13456,13 +13431,13 @@
         <v>41</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>41</v>
+        <v>490</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>41</v>
+        <v>491</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>41</v>
@@ -13480,13 +13455,13 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>41</v>
@@ -13498,7 +13473,7 @@
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>41</v>
@@ -13507,12 +13482,12 @@
         <v>41</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>436</v>
+        <v>493</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13526,7 +13501,7 @@
         <v>50</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>41</v>
@@ -13535,13 +13510,13 @@
         <v>51</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>438</v>
+        <v>52</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13592,7 +13567,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13610,21 +13585,21 @@
         <v>41</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>443</v>
+        <v>493</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13632,31 +13607,35 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J101" t="s" s="2">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>41</v>
       </c>
@@ -13704,7 +13683,7 @@
         <v>41</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13719,24 +13698,24 @@
         <v>62</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>447</v>
+        <v>41</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>443</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13756,18 +13735,20 @@
         <v>41</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>399</v>
+        <v>507</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>41</v>
@@ -13792,13 +13773,13 @@
         <v>41</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>41</v>
+        <v>511</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>41</v>
+        <v>512</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>41</v>
@@ -13816,7 +13797,7 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13834,21 +13815,21 @@
         <v>41</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>453</v>
+        <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>454</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13859,7 +13840,7 @@
         <v>42</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>41</v>
@@ -13868,19 +13849,23 @@
         <v>41</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>456</v>
+        <v>140</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>41</v>
       </c>
@@ -13904,13 +13889,13 @@
         <v>41</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>41</v>
+        <v>521</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>41</v>
+        <v>522</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>41</v>
@@ -13928,13 +13913,13 @@
         <v>41</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>41</v>
@@ -13946,21 +13931,21 @@
         <v>41</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>460</v>
+        <v>41</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>41</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13971,28 +13956,30 @@
         <v>42</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J104" t="s" s="2">
-        <v>462</v>
+        <v>140</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>41</v>
       </c>
@@ -14016,13 +14003,13 @@
         <v>41</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>41</v>
+        <v>530</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>41</v>
+        <v>531</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>41</v>
@@ -14040,13 +14027,13 @@
         <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>41</v>
@@ -14055,10 +14042,10 @@
         <v>62</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>465</v>
+        <v>41</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>41</v>
@@ -14067,12 +14054,12 @@
         <v>41</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>467</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14083,30 +14070,32 @@
         <v>42</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J105" t="s" s="2">
-        <v>469</v>
+        <v>140</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>41</v>
       </c>
@@ -14130,13 +14119,13 @@
         <v>41</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>41</v>
+        <v>540</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>41</v>
+        <v>541</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>41</v>
@@ -14154,13 +14143,13 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>41</v>
@@ -14172,7 +14161,7 @@
         <v>41</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>
@@ -14181,12 +14170,12 @@
         <v>41</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>41</v>
+        <v>544</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14197,7 +14186,7 @@
         <v>42</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>41</v>
@@ -14206,16 +14195,16 @@
         <v>41</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>52</v>
+        <v>546</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>120</v>
+        <v>547</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>121</v>
+        <v>548</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14266,25 +14255,25 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>122</v>
+        <v>549</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>41</v>
@@ -14293,23 +14282,23 @@
         <v>41</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>41</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>41</v>
@@ -14321,17 +14310,15 @@
         <v>41</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>41</v>
@@ -14368,31 +14355,31 @@
         <v>41</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>41</v>
@@ -14412,11 +14399,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>371</v>
+        <v>95</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14429,26 +14416,24 @@
         <v>41</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>372</v>
+        <v>97</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>373</v>
+        <v>125</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N108" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>41</v>
       </c>
@@ -14484,19 +14469,19 @@
         <v>41</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>374</v>
+        <v>128</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14514,7 +14499,7 @@
         <v>41</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>41</v>
@@ -14528,7 +14513,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14551,17 +14536,17 @@
         <v>51</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>478</v>
+        <v>140</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>479</v>
+        <v>554</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>481</v>
+        <v>556</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>41</v>
@@ -14586,13 +14571,13 @@
         <v>41</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>41</v>
+        <v>557</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>41</v>
+        <v>558</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>41</v>
@@ -14610,7 +14595,7 @@
         <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>482</v>
+        <v>559</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14628,7 +14613,7 @@
         <v>41</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>41</v>
@@ -14637,12 +14622,12 @@
         <v>41</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>484</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>485</v>
+        <v>561</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14656,7 +14641,7 @@
         <v>50</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>41</v>
@@ -14665,17 +14650,19 @@
         <v>51</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>52</v>
+        <v>562</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>486</v>
+        <v>563</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M110" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="N110" t="s" s="2">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>41</v>
@@ -14724,7 +14711,7 @@
         <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14742,7 +14729,7 @@
         <v>41</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14751,12 +14738,12 @@
         <v>41</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>490</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14767,7 +14754,7 @@
         <v>42</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>41</v>
@@ -14779,19 +14766,19 @@
         <v>51</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>140</v>
+        <v>570</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>492</v>
+        <v>571</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>493</v>
+        <v>572</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>495</v>
+        <v>574</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>41</v>
@@ -14816,13 +14803,13 @@
         <v>41</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>497</v>
+        <v>41</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>41</v>
@@ -14840,13 +14827,13 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>498</v>
+        <v>575</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>41</v>
@@ -14858,7 +14845,7 @@
         <v>41</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>483</v>
+        <v>576</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>41</v>
@@ -14867,12 +14854,12 @@
         <v>41</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>499</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14886,7 +14873,7 @@
         <v>50</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>41</v>
@@ -14895,16 +14882,20 @@
         <v>51</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>52</v>
+        <v>579</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>41</v>
       </c>
@@ -14952,7 +14943,7 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>503</v>
+        <v>584</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -14970,7 +14961,7 @@
         <v>41</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>483</v>
+        <v>585</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14979,12 +14970,12 @@
         <v>41</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>499</v>
+        <v>586</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>504</v>
+        <v>587</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15007,19 +14998,19 @@
         <v>51</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>505</v>
+        <v>420</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>508</v>
+        <v>590</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>509</v>
+        <v>591</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>41</v>
@@ -15068,7 +15059,7 @@
         <v>41</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15086,7 +15077,7 @@
         <v>41</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>511</v>
+        <v>593</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>41</v>
@@ -15100,7 +15091,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15123,18 +15114,18 @@
         <v>51</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>513</v>
+        <v>420</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>514</v>
+        <v>595</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>41</v>
       </c>
@@ -15158,13 +15149,13 @@
         <v>41</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>517</v>
+        <v>41</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>518</v>
+        <v>41</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>41</v>
@@ -15182,7 +15173,7 @@
         <v>41</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>519</v>
+        <v>598</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15200,7 +15191,7 @@
         <v>41</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>41</v>
@@ -15209,12 +15200,12 @@
         <v>41</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>521</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15234,23 +15225,19 @@
         <v>41</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>140</v>
+        <v>362</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>523</v>
+        <v>600</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>41</v>
       </c>
@@ -15274,13 +15261,13 @@
         <v>41</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>527</v>
+        <v>41</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>528</v>
+        <v>41</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>41</v>
@@ -15298,7 +15285,7 @@
         <v>41</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15316,21 +15303,21 @@
         <v>41</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>530</v>
+        <v>602</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>41</v>
+        <v>603</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>531</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15350,21 +15337,19 @@
         <v>41</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>533</v>
+        <v>120</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>534</v>
+        <v>121</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" t="s" s="2">
-        <v>535</v>
-      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>41</v>
       </c>
@@ -15388,13 +15373,13 @@
         <v>41</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>536</v>
+        <v>41</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>537</v>
+        <v>41</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>41</v>
@@ -15412,7 +15397,7 @@
         <v>41</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>538</v>
+        <v>122</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15424,13 +15409,13 @@
         <v>41</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>539</v>
+        <v>123</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>41</v>
@@ -15439,23 +15424,23 @@
         <v>41</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>540</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>41</v>
@@ -15464,23 +15449,21 @@
         <v>41</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>542</v>
+        <v>97</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>543</v>
+        <v>125</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>41</v>
       </c>
@@ -15504,13 +15487,13 @@
         <v>41</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>546</v>
+        <v>41</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>547</v>
+        <v>41</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>41</v>
@@ -15528,25 +15511,25 @@
         <v>41</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>548</v>
+        <v>128</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>549</v>
+        <v>123</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>41</v>
@@ -15555,16 +15538,16 @@
         <v>41</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>550</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>551</v>
+        <v>606</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15577,22 +15560,26 @@
         <v>41</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>552</v>
+        <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>553</v>
+        <v>371</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>41</v>
       </c>
@@ -15640,7 +15627,7 @@
         <v>41</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>555</v>
+        <v>373</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15652,13 +15639,13 @@
         <v>41</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>41</v>
@@ -15667,12 +15654,12 @@
         <v>41</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>556</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>557</v>
+        <v>607</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15680,7 +15667,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>50</v>
@@ -15695,13 +15682,13 @@
         <v>41</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>120</v>
+        <v>608</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>121</v>
+        <v>609</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15752,10 +15739,10 @@
         <v>41</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>122</v>
+        <v>607</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>50</v>
@@ -15764,13 +15751,13 @@
         <v>41</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>123</v>
+        <v>610</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>41</v>
@@ -15784,18 +15771,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>41</v>
@@ -15807,17 +15794,15 @@
         <v>41</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>97</v>
+        <v>612</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>41</v>
@@ -15842,63 +15827,63 @@
         <v>41</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>41</v>
+        <v>614</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>41</v>
+        <v>615</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>128</v>
+        <v>611</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>123</v>
+        <v>416</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>41</v>
+        <v>616</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>41</v>
+        <v>617</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15909,7 +15894,7 @@
         <v>42</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>41</v>
@@ -15918,21 +15903,19 @@
         <v>41</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>140</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>560</v>
+        <v>619</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>561</v>
+        <v>620</v>
       </c>
       <c r="M121" s="2"/>
-      <c r="N121" t="s" s="2">
-        <v>562</v>
-      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>41</v>
       </c>
@@ -15959,10 +15942,10 @@
         <v>263</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>41</v>
@@ -15980,13 +15963,13 @@
         <v>41</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>41</v>
@@ -15998,21 +15981,21 @@
         <v>41</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>41</v>
+        <v>623</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>41</v>
+        <v>624</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>566</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16023,7 +16006,7 @@
         <v>42</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>41</v>
@@ -16032,23 +16015,19 @@
         <v>41</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>41</v>
       </c>
@@ -16096,13 +16075,13 @@
         <v>41</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>41</v>
@@ -16114,32 +16093,32 @@
         <v>41</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>41</v>
+        <v>630</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>574</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>575</v>
+        <v>631</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>41</v>
+        <v>632</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>41</v>
@@ -16148,23 +16127,21 @@
         <v>41</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>41</v>
       </c>
@@ -16212,13 +16189,13 @@
         <v>41</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>581</v>
+        <v>631</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>41</v>
@@ -16230,7 +16207,7 @@
         <v>41</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>582</v>
+        <v>637</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>41</v>
@@ -16239,12 +16216,12 @@
         <v>41</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>583</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>584</v>
+        <v>638</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16255,7 +16232,7 @@
         <v>42</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>41</v>
@@ -16264,23 +16241,21 @@
         <v>41</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>585</v>
+        <v>639</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>586</v>
+        <v>640</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>587</v>
+        <v>641</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>589</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>41</v>
       </c>
@@ -16328,13 +16303,13 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>590</v>
+        <v>638</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>41</v>
@@ -16346,7 +16321,7 @@
         <v>41</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>591</v>
+        <v>643</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>41</v>
@@ -16355,1371 +16330,11 @@
         <v>41</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN136" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN136">
+  <autoFilter ref="A1:AN124">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17729,7 +16344,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI135">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/releasecandidate/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/releasecandidate/StructureDefinition-be-medicationdispense.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="645">
   <si>
     <t>Path</t>
   </si>
@@ -1066,6 +1066,9 @@
   </si>
   <si>
     <t>MedicationDispense.context.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>https://www.gfd-dpp.be/fhir/reference/identifier_types</t>
   </si>
   <si>
     <t>MedicationDispense.context.identifier.type.coding.version</t>
@@ -8418,7 +8421,7 @@
         <v>41</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>41</v>
@@ -8489,7 +8492,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8603,7 +8606,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8646,7 +8649,7 @@
         <v>41</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>41</v>
@@ -8717,7 +8720,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8831,7 +8834,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8947,7 +8950,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9063,7 +9066,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9108,7 +9111,7 @@
         <v>41</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>216</v>
@@ -9179,7 +9182,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9293,7 +9296,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9405,7 +9408,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9519,7 +9522,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9545,13 +9548,13 @@
         <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9601,7 +9604,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9633,7 +9636,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9656,13 +9659,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9713,7 +9716,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9731,10 +9734,10 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9745,7 +9748,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9768,13 +9771,13 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9825,7 +9828,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9840,10 +9843,10 @@
         <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9969,7 +9972,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10083,11 +10086,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10109,10 +10112,10 @@
         <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>99</v>
@@ -10167,7 +10170,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -10199,7 +10202,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10225,14 +10228,14 @@
         <v>140</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -10260,10 +10263,10 @@
         <v>263</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
@@ -10281,7 +10284,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10299,7 +10302,7 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
@@ -10313,7 +10316,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10425,7 +10428,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10539,7 +10542,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10655,7 +10658,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10700,7 +10703,7 @@
         <v>41</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>41</v>
@@ -10771,7 +10774,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10794,13 +10797,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10851,7 +10854,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>50</v>
@@ -10866,10 +10869,10 @@
         <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>41</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10906,13 +10909,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10963,7 +10966,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10981,7 +10984,7 @@
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>41</v>
@@ -10995,7 +10998,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11018,16 +11021,16 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11077,7 +11080,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -11092,24 +11095,24 @@
         <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11221,7 +11224,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11335,7 +11338,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11449,7 +11452,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11563,7 +11566,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11677,7 +11680,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11703,13 +11706,13 @@
         <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11759,7 +11762,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11817,10 +11820,10 @@
         <v>140</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11850,10 +11853,10 @@
         <v>263</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>41</v>
@@ -11871,7 +11874,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11889,21 +11892,21 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11926,13 +11929,13 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11983,7 +11986,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -12001,21 +12004,21 @@
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12038,13 +12041,13 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12095,7 +12098,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -12113,7 +12116,7 @@
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
@@ -12122,12 +12125,12 @@
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12150,13 +12153,13 @@
         <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12207,7 +12210,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -12225,21 +12228,21 @@
         <v>41</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12262,13 +12265,13 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12319,7 +12322,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12334,24 +12337,24 @@
         <v>62</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12374,13 +12377,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12431,7 +12434,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12449,21 +12452,21 @@
         <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12486,13 +12489,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12543,7 +12546,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12561,13 +12564,13 @@
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
@@ -12575,7 +12578,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12598,13 +12601,13 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12655,7 +12658,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12670,10 +12673,10 @@
         <v>62</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>41</v>
@@ -12682,12 +12685,12 @@
         <v>41</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12710,16 +12713,16 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12769,7 +12772,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12787,7 +12790,7 @@
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>41</v>
@@ -12801,7 +12804,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12913,7 +12916,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13027,11 +13030,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13053,10 +13056,10 @@
         <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>99</v>
@@ -13111,7 +13114,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -13143,7 +13146,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13166,17 +13169,17 @@
         <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>41</v>
@@ -13225,7 +13228,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13243,7 +13246,7 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
@@ -13252,12 +13255,12 @@
         <v>41</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13283,14 +13286,14 @@
         <v>52</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>41</v>
@@ -13339,7 +13342,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13357,7 +13360,7 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
@@ -13366,12 +13369,12 @@
         <v>41</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13397,16 +13400,16 @@
         <v>140</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>41</v>
@@ -13434,10 +13437,10 @@
         <v>263</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>41</v>
@@ -13455,7 +13458,7 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13473,7 +13476,7 @@
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>41</v>
@@ -13482,12 +13485,12 @@
         <v>41</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13513,10 +13516,10 @@
         <v>52</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13567,7 +13570,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13585,7 +13588,7 @@
         <v>41</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>41</v>
@@ -13594,12 +13597,12 @@
         <v>41</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13622,19 +13625,19 @@
         <v>51</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>41</v>
@@ -13683,7 +13686,7 @@
         <v>41</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13701,7 +13704,7 @@
         <v>41</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
@@ -13715,7 +13718,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13738,16 +13741,16 @@
         <v>51</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13776,10 +13779,10 @@
         <v>263</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>41</v>
@@ -13797,7 +13800,7 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13815,7 +13818,7 @@
         <v>41</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>41</v>
@@ -13824,12 +13827,12 @@
         <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13855,16 +13858,16 @@
         <v>140</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>41</v>
@@ -13892,10 +13895,10 @@
         <v>263</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>41</v>
@@ -13913,7 +13916,7 @@
         <v>41</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13931,7 +13934,7 @@
         <v>41</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>41</v>
@@ -13940,12 +13943,12 @@
         <v>41</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13971,14 +13974,14 @@
         <v>140</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>41</v>
@@ -14006,10 +14009,10 @@
         <v>263</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>41</v>
@@ -14027,7 +14030,7 @@
         <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -14045,7 +14048,7 @@
         <v>41</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>41</v>
@@ -14054,12 +14057,12 @@
         <v>41</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14085,16 +14088,16 @@
         <v>140</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>41</v>
@@ -14122,10 +14125,10 @@
         <v>263</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>41</v>
@@ -14143,7 +14146,7 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -14161,7 +14164,7 @@
         <v>41</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>
@@ -14170,12 +14173,12 @@
         <v>41</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14198,13 +14201,13 @@
         <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14255,7 +14258,7 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -14282,12 +14285,12 @@
         <v>41</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14399,7 +14402,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14513,7 +14516,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14539,14 +14542,14 @@
         <v>140</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>41</v>
@@ -14574,10 +14577,10 @@
         <v>263</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>41</v>
@@ -14595,7 +14598,7 @@
         <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14622,12 +14625,12 @@
         <v>41</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14650,19 +14653,19 @@
         <v>51</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>41</v>
@@ -14711,7 +14714,7 @@
         <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14729,7 +14732,7 @@
         <v>41</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14738,12 +14741,12 @@
         <v>41</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14766,19 +14769,19 @@
         <v>51</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>41</v>
@@ -14827,7 +14830,7 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14845,7 +14848,7 @@
         <v>41</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>41</v>
@@ -14854,12 +14857,12 @@
         <v>41</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14882,19 +14885,19 @@
         <v>51</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>41</v>
@@ -14943,7 +14946,7 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -14961,7 +14964,7 @@
         <v>41</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14970,12 +14973,12 @@
         <v>41</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14998,19 +15001,19 @@
         <v>51</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>41</v>
@@ -15059,7 +15062,7 @@
         <v>41</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15077,7 +15080,7 @@
         <v>41</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>41</v>
@@ -15091,7 +15094,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15114,17 +15117,17 @@
         <v>51</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>41</v>
@@ -15173,7 +15176,7 @@
         <v>41</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15191,7 +15194,7 @@
         <v>41</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>41</v>
@@ -15205,7 +15208,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15228,13 +15231,13 @@
         <v>41</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15285,7 +15288,7 @@
         <v>41</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15303,13 +15306,13 @@
         <v>41</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>41</v>
@@ -15317,7 +15320,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15429,7 +15432,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15543,11 +15546,11 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15569,10 +15572,10 @@
         <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>99</v>
@@ -15627,7 +15630,7 @@
         <v>41</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15659,7 +15662,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15685,10 +15688,10 @@
         <v>194</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15739,7 +15742,7 @@
         <v>41</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>50</v>
@@ -15757,7 +15760,7 @@
         <v>41</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>41</v>
@@ -15771,7 +15774,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15797,10 +15800,10 @@
         <v>140</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15830,10 +15833,10 @@
         <v>263</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>41</v>
@@ -15851,7 +15854,7 @@
         <v>41</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -15869,21 +15872,21 @@
         <v>41</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15909,10 +15912,10 @@
         <v>140</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15942,10 +15945,10 @@
         <v>263</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>41</v>
@@ -15963,7 +15966,7 @@
         <v>41</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -15981,13 +15984,13 @@
         <v>41</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>41</v>
@@ -15995,7 +15998,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16018,13 +16021,13 @@
         <v>41</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16075,7 +16078,7 @@
         <v>41</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -16093,13 +16096,13 @@
         <v>41</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>41</v>
@@ -16107,11 +16110,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16130,16 +16133,16 @@
         <v>41</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16189,7 +16192,7 @@
         <v>41</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -16207,7 +16210,7 @@
         <v>41</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>41</v>
@@ -16221,7 +16224,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16244,16 +16247,16 @@
         <v>41</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16303,7 +16306,7 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16321,7 +16324,7 @@
         <v>41</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>41</v>

--- a/branches/releasecandidate/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/releasecandidate/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T09:22:59+00:00</t>
+    <t>2022-05-06T12:01:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/releasecandidate/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/releasecandidate/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T12:01:36+00:00</t>
+    <t>2022-05-06T14:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
